--- a/test.xlsx
+++ b/test.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,12 +557,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>AP62300</t>
+          <t>SCT2330E1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>AP623003P</t>
+          <t>SCT2330E13P</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -572,17 +572,17 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>XBJ10507B</t>
+          <t>XBJ10503B</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>AP623003P_20200525_Bump_Prod</t>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>TW80110</t>
+          <t>TW93410</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -592,12 +592,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>TW8011001</t>
+          <t>TW9341001</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>28125</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>28125</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2020-07-24 19:06:58</t>
+          <t>2020-07-25 23:43:10</t>
         </is>
       </c>
       <c r="T2" t="inlineStr"/>
@@ -650,12 +650,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AP62300</t>
+          <t>SCT2330E1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>AP623003P</t>
+          <t>SCT2330E13P</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -665,17 +665,17 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>XBJ10507B</t>
+          <t>XBJ10503B</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>AP623003P_20200525_Bump_Prod</t>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>TW80110</t>
+          <t>TW93410</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -685,12 +685,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>TW8011002</t>
+          <t>TW9341002</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>28125</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -700,7 +700,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>28125</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2020-07-24 19:07:00</t>
+          <t>2020-07-25 23:43:12</t>
         </is>
       </c>
       <c r="T3" t="inlineStr"/>
@@ -743,12 +743,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>AP62300</t>
+          <t>SCT2330E1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>AP623003P</t>
+          <t>SCT2330E13P</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -758,17 +758,17 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>XBJ10507B</t>
+          <t>XBJ10503B</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>AP623003P_20200525_Bump_Prod</t>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>TW80110</t>
+          <t>TW93410</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -778,12 +778,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>TW8011003</t>
+          <t>TW9341003</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>28125</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>28125</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2020-07-24 19:07:01</t>
+          <t>2020-07-25 23:43:12</t>
         </is>
       </c>
       <c r="T4" t="inlineStr"/>
@@ -836,12 +836,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>AP62300</t>
+          <t>SCT2330E1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>AP623003P</t>
+          <t>SCT2330E13P</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -851,32 +851,32 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>XBJ10507B</t>
+          <t>XBJ10503B</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>AP623003P_20200525_Bump_Prod</t>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>TW80110</t>
+          <t>TW93410</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>04</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>TW8011010</t>
+          <t>TW9341004</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>28125</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>28125</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>ABC10</t>
+          <t>ABC04</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr"/>
@@ -902,7 +902,7 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2020-07-24 19:07:06</t>
+          <t>2020-07-25 23:43:13</t>
         </is>
       </c>
       <c r="T5" t="inlineStr"/>
@@ -929,12 +929,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>AP62300</t>
+          <t>SCT2330E1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>AP623003P</t>
+          <t>SCT2330E13P</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -944,32 +944,32 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>XBJ10507B</t>
+          <t>XBJ10503B</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>AP623003P_20200525_Bump_Prod</t>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>TW80110</t>
+          <t>TW93410</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>05</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>TW8011011</t>
+          <t>TW9341005</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>28125</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -979,12 +979,12 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>28125</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>ABC11</t>
+          <t>ABC05</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr"/>
@@ -995,7 +995,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2020-07-24 19:07:10</t>
+          <t>2020-07-25 23:43:13</t>
         </is>
       </c>
       <c r="T6" t="inlineStr"/>
@@ -1022,12 +1022,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AP62300</t>
+          <t>SCT2330E1</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>AP623003P</t>
+          <t>SCT2330E13P</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1037,32 +1037,32 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>XBJ10507B</t>
+          <t>XBJ10503B</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>AP623003P_20200525_Bump_Prod</t>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>TW80110</t>
+          <t>TW93410</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>06</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>TW8011012</t>
+          <t>TW9341006</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>28125</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1072,12 +1072,12 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>28125</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>ABC12</t>
+          <t>ABC06</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr"/>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2020-07-24 19:07:13</t>
+          <t>2020-07-25 23:43:14</t>
         </is>
       </c>
       <c r="T7" t="inlineStr"/>
@@ -1115,12 +1115,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>AP62300</t>
+          <t>SCT2330E1</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>AP623003P</t>
+          <t>SCT2330E13P</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1130,32 +1130,32 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>XBJ10507B</t>
+          <t>XBJ10503B</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>AP623003P_20200525_Bump_Prod</t>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>TW80110</t>
+          <t>TW93410</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>07</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>TW8011013</t>
+          <t>TW9341007</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>28125</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1165,12 +1165,12 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>28125</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>ABC13</t>
+          <t>ABC07</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr"/>
@@ -1181,7 +1181,7 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2020-07-24 19:07:15</t>
+          <t>2020-07-25 23:43:14</t>
         </is>
       </c>
       <c r="T8" t="inlineStr"/>
@@ -1208,12 +1208,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>AP62300</t>
+          <t>SCT2330E1</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>AP623003P</t>
+          <t>SCT2330E13P</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1223,32 +1223,32 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>XBJ10507B</t>
+          <t>XBJ10503B</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>AP623003P_20200525_Bump_Prod</t>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>TW80110</t>
+          <t>TW93410</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>08</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>TW8011014</t>
+          <t>TW9341008</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>28125</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1258,12 +1258,12 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>28125</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>ABC14</t>
+          <t>ABC08</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr"/>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2020-07-24 19:07:17</t>
+          <t>2020-07-25 23:43:14</t>
         </is>
       </c>
       <c r="T9" t="inlineStr"/>
@@ -1301,12 +1301,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>AP62300</t>
+          <t>SCT2330E1</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>AP623003P</t>
+          <t>SCT2330E13P</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1316,32 +1316,32 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>XBJ10507B</t>
+          <t>XBJ10503B</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>AP623003P_20200525_Bump_Prod</t>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>TW80110</t>
+          <t>TW93410</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>09</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>TW8011015</t>
+          <t>TW9341009</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>28125</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1351,12 +1351,12 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>28125</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>ABC15</t>
+          <t>ABC09</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr"/>
@@ -1367,7 +1367,7 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2020-07-24 19:07:18</t>
+          <t>2020-07-25 23:43:15</t>
         </is>
       </c>
       <c r="T10" t="inlineStr"/>
@@ -1394,12 +1394,12 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>AP62300</t>
+          <t>SCT2330E1</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>AP623003P</t>
+          <t>SCT2330E13P</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1409,32 +1409,32 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>XBJ10507B</t>
+          <t>XBJ10503B</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>AP623003P_20200525_Bump_Prod</t>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>TW80110</t>
+          <t>TW93410</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>TW8011016</t>
+          <t>TW9341010</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>28125</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1444,12 +1444,12 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>28125</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>ABC16</t>
+          <t>ABC10</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr"/>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2020-07-24 19:07:20</t>
+          <t>2020-07-25 23:43:15</t>
         </is>
       </c>
       <c r="T11" t="inlineStr"/>
@@ -1487,12 +1487,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>AP62300</t>
+          <t>SCT2330E1</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>AP623003P</t>
+          <t>SCT2330E13P</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1502,32 +1502,32 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>XBJ10507B</t>
+          <t>XBJ10503B</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>AP623003P_20200525_Bump_Prod</t>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>TW80110</t>
+          <t>TW93410</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>TW8011017</t>
+          <t>TW9341011</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>28125</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1537,12 +1537,12 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>28125</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>ABC17</t>
+          <t>ABC11</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr"/>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2020-07-24 19:07:21</t>
+          <t>2020-07-25 23:43:16</t>
         </is>
       </c>
       <c r="T12" t="inlineStr"/>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>AP62300</t>
+          <t>SCT2330E1</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>AP623003P</t>
+          <t>SCT2330E13P</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1595,32 +1595,32 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>XBJ10507B</t>
+          <t>XBJ10503B</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>AP623003P_20200525_Bump_Prod</t>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>TW80110</t>
+          <t>TW93410</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>TW8011018</t>
+          <t>TW9341012</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>28125</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1630,12 +1630,12 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>28125</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>ABC18</t>
+          <t>ABC12</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr"/>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>2020-07-24 19:07:23</t>
+          <t>2020-07-25 23:43:16</t>
         </is>
       </c>
       <c r="T13" t="inlineStr"/>
@@ -1673,12 +1673,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>AP62300</t>
+          <t>SCT2330E1</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>AP623003P</t>
+          <t>SCT2330E13P</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1688,32 +1688,32 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>XBJ10507B</t>
+          <t>XBJ10503B</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>AP623003P_20200525_Bump_Prod</t>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>TW80110</t>
+          <t>TW93410</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>13</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>TW8011019</t>
+          <t>TW9341013</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>28125</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1723,12 +1723,12 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>28125</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>ABC19</t>
+          <t>ABC13</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr"/>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>2020-07-24 19:07:24</t>
+          <t>2020-07-25 23:43:16</t>
         </is>
       </c>
       <c r="T14" t="inlineStr"/>
@@ -1766,12 +1766,12 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>AP62300</t>
+          <t>SCT2330E1</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>AP623003P</t>
+          <t>SCT2330E13P</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1781,32 +1781,32 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>XBJ10507B</t>
+          <t>XBJ10503B</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>AP623003P_20200525_Bump_Prod</t>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>TW80110</t>
+          <t>TW93410</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>14</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>TW8011020</t>
+          <t>TW9341014</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>28125</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1816,12 +1816,12 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>28125</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>ABC20</t>
+          <t>ABC14</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr"/>
@@ -1832,7 +1832,7 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>2020-07-24 19:07:26</t>
+          <t>2020-07-25 23:43:17</t>
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
@@ -1859,12 +1859,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>AP62300</t>
+          <t>SCT2330E1</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>AP623003P</t>
+          <t>SCT2330E13P</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1874,32 +1874,32 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>XBJ10507B</t>
+          <t>XBJ10503B</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>AP623003P_20200525_Bump_Prod</t>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>TW80110</t>
+          <t>TW93410</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>TW8011021</t>
+          <t>TW9341015</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>28125</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1909,12 +1909,12 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>28125</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>ABC21</t>
+          <t>ABC15</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr"/>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>2020-07-24 19:07:27</t>
+          <t>2020-07-25 23:43:17</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
@@ -1952,12 +1952,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>AP62300</t>
+          <t>SCT2330E1</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>AP623003P</t>
+          <t>SCT2330E13P</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1967,32 +1967,32 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>XBJ10507B</t>
+          <t>XBJ10503B</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>AP623003P_20200525_Bump_Prod</t>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>TW80110</t>
+          <t>TW93410</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>16</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>TW8011022</t>
+          <t>TW9341016</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>28125</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -2002,12 +2002,12 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>28125</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>ABC22</t>
+          <t>ABC16</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr"/>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>2020-07-24 19:07:29</t>
+          <t>2020-07-25 23:43:18</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
@@ -2045,12 +2045,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>AP62300</t>
+          <t>SCT2330E1</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>AP623003P</t>
+          <t>SCT2330E13P</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -2060,32 +2060,32 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>XBJ10507B</t>
+          <t>XBJ10503B</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>AP623003P_20200525_Bump_Prod</t>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>TW80110</t>
+          <t>TW93410</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>17</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>TW8011023</t>
+          <t>TW9341017</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>28125</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -2095,12 +2095,12 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>28125</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>ABC23</t>
+          <t>ABC17</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr"/>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>2020-07-24 19:07:30</t>
+          <t>2020-07-25 23:43:18</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
@@ -2138,12 +2138,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>AP62300</t>
+          <t>SCT2330E1</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>AP623003P</t>
+          <t>SCT2330E13P</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -2153,32 +2153,32 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>XBJ10507B</t>
+          <t>XBJ10503B</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>AP623003P_20200525_Bump_Prod</t>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>TW80110</t>
+          <t>TW93410</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>18</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>TW8011024</t>
+          <t>TW9341018</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>28125</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>28125</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>ABC24</t>
+          <t>ABC18</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr"/>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>2020-07-24 19:07:32</t>
+          <t>2020-07-25 23:43:18</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
@@ -2231,12 +2231,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>AP62300</t>
+          <t>SCT2330E1</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>AP623003P</t>
+          <t>SCT2330E13P</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2246,32 +2246,32 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>XBJ10507B</t>
+          <t>XBJ10503B</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>AP623003P_20200525_Bump_Prod</t>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>TW80110</t>
+          <t>TW93410</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>19</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>TW8011025</t>
+          <t>TW9341019</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>28125</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -2281,12 +2281,12 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>28125</t>
+          <t>9672</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>ABC25</t>
+          <t>ABC19</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr"/>
@@ -2297,11 +2297,2894 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>2020-07-24 19:07:08</t>
+          <t>2020-07-25 23:43:19</t>
         </is>
       </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>非保税</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>BJ105</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>SCT2330E1</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>SCT2330E13P</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>19003</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>XBJ10503B</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>TW93410</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>TW9341020</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>ABC20</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>15918</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>2020-07-25 23:43:19</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>非保税</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>BJ105</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>SCT2330E1</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>SCT2330E13P</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>19003</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>XBJ10503B</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>TW93410</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>TW9341021</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>ABC21</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>15918</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>2020-07-25 23:43:20</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>非保税</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>BJ105</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>SCT2330E1</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>SCT2330E13P</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>19003</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>XBJ10503B</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>TW93410</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>TW9341022</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>ABC22</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>15918</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>2020-07-25 23:43:20</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>非保税</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>BJ105</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>SCT2330E1</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>SCT2330E13P</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>19003</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>XBJ10503B</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>TW93410</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>TW9341023</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>ABC23</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>15918</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>2020-07-25 23:43:21</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>非保税</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>BJ105</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>SCT2330E1</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>SCT2330E13P</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>19003</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>XBJ10503B</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>TW93410</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>TW9341024</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>ABC24</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>15918</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>2020-07-25 23:43:21</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>非保税</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>BJ105</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>SCT2330E1</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>SCT2330E13P</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>19003</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>XBJ10503B</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>TW93410</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>TW9341025</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>ABC25</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>15918</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>2020-07-25 23:43:11</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>非保税</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>BJ105</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>SCT2330E1</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>SCT2330E13P</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>19003</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>XBJ10503B</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>TW93420</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>TW9342001</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>ABC01</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>15918</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>2020-07-25 23:43:21</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>非保税</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>BJ105</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>SCT2330E1</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>SCT2330E13P</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>19003</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>XBJ10503B</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>TW93420</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>TW9342002</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>ABC02</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>15918</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>2020-07-25 23:43:22</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>非保税</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>BJ105</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>SCT2330E1</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>SCT2330E13P</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>19003</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>XBJ10503B</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>TW93420</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>TW9342003</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>ABC03</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>15918</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>2020-07-25 23:43:23</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>非保税</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>BJ105</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>SCT2330E1</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>SCT2330E13P</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>19003</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>XBJ10503B</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>TW93420</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>TW9342004</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>ABC04</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>15918</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>2020-07-25 23:43:23</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>非保税</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>BJ105</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>SCT2330E1</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>SCT2330E13P</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>19003</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>XBJ10503B</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>TW93420</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>TW9342005</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>ABC05</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>15918</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>2020-07-25 23:43:23</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>非保税</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>BJ105</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>SCT2330E1</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>SCT2330E13P</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>19003</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>XBJ10503B</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>TW93420</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>TW9342006</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>ABC06</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>15918</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>2020-07-25 23:43:24</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>非保税</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>BJ105</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>SCT2330E1</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>SCT2330E13P</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>19003</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>XBJ10503B</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>TW93420</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>TW9342007</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>ABC07</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>15918</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>2020-07-25 23:43:24</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>非保税</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>BJ105</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>SCT2330E1</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>SCT2330E13P</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>19003</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>XBJ10503B</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>TW93420</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>TW9342008</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>ABC08</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>15918</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>2020-07-25 23:43:25</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>非保税</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>BJ105</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>SCT2330E1</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>SCT2330E13P</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>19003</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>XBJ10503B</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>TW93420</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>TW9342009</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>ABC09</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>15918</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>2020-07-25 23:43:25</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>非保税</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>BJ105</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>SCT2330E1</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>SCT2330E13P</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>19003</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>XBJ10503B</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>TW93420</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>TW9342010</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>ABC10</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>15918</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>2020-07-25 23:43:25</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>非保税</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>BJ105</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>SCT2330E1</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>SCT2330E13P</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>19003</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>XBJ10503B</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>TW93420</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>TW9342011</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>ABC11</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>15918</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>2020-07-25 23:43:26</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>非保税</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>BJ105</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>SCT2330E1</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>SCT2330E13P</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>19003</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>XBJ10503B</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>TW93420</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>TW9342012</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>ABC12</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>15918</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>2020-07-25 23:43:26</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>非保税</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>BJ105</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>SCT2330E1</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>SCT2330E13P</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>19003</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>XBJ10503B</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>TW93420</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>TW9342013</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>ABC13</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>15918</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>2020-07-25 23:43:27</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>非保税</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>BJ105</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>SCT2330E1</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>SCT2330E13P</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>19003</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>XBJ10503B</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>TW93420</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>TW9342014</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>ABC14</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>15918</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>2020-07-25 23:43:27</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>非保税</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>BJ105</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>SCT2330E1</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>SCT2330E13P</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>19003</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>XBJ10503B</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>TW93420</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>TW9342015</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>ABC15</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>15918</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>2020-07-25 23:43:27</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>非保税</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>BJ105</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>SCT2330E1</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>SCT2330E13P</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>19003</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>XBJ10503B</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>TW93420</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>TW9342016</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>ABC16</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>15918</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>2020-07-25 23:43:28</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>非保税</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>BJ105</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>SCT2330E1</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>SCT2330E13P</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>19003</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>XBJ10503B</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>TW93420</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>TW9342017</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>ABC17</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>15918</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>2020-07-25 23:43:28</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>非保税</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>BJ105</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>SCT2330E1</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>SCT2330E13P</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>19003</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>XBJ10503B</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>TW93420</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>TW9342018</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>ABC18</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>15918</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>2020-07-25 23:43:29</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>非保税</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>BJ105</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>SCT2330E1</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>SCT2330E13P</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>19003</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>XBJ10503B</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>TW93420</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>TW9342019</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>ABC19</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>15918</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>2020-07-25 23:43:29</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>非保税</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>BJ105</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>SCT2330E1</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>SCT2330E13P</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>19003</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>XBJ10503B</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>TW93420</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>TW9342020</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>ABC20</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>15918</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>2020-07-25 23:43:29</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>非保税</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>BJ105</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>SCT2330E1</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>SCT2330E13P</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>19003</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>XBJ10503B</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>TW93420</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>TW9342021</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>ABC21</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>15918</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>2020-07-25 23:43:30</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>非保税</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>BJ105</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>SCT2330E1</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>SCT2330E13P</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>19003</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>XBJ10503B</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>TW93420</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>TW9342022</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>ABC22</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>15918</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>2020-07-25 23:43:30</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>非保税</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>BJ105</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>SCT2330E1</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>SCT2330E13P</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>19003</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>XBJ10503B</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>TW93420</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>TW9342023</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>ABC23</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>15918</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>2020-07-25 23:43:31</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>非保税</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>BJ105</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>SCT2330E1</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>SCT2330E13P</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>19003</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>XBJ10503B</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>TW93420</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>TW9342024</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>ABC24</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>15918</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>2020-07-25 23:43:31</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>非保税</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>BJ105</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>SCT2330E1</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>SCT2330E13P</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>19003</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>XBJ10503B</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>SCT2330E13P_20200520_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>TW93420</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>TW9342025</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>9672</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>ABC25</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>15918</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>2020-07-25 23:43:22</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
